--- a/pasta_time.xlsx
+++ b/pasta_time.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\enric\Documents\github\pasta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B6511C5-8B85-46CA-AF2A-A10B673097C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F26B8766-E7F7-4436-8500-8BF21070EC04}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-90" yWindow="-90" windowWidth="19380" windowHeight="10260" xr2:uid="{B609E244-91B8-4FAF-98D8-A0BCE274054A}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="10">
   <si>
     <t>e</t>
   </si>
@@ -60,6 +60,12 @@
   </si>
   <si>
     <t>p</t>
+  </si>
+  <si>
+    <t>s</t>
+  </si>
+  <si>
+    <t>30.11.25</t>
   </si>
 </sst>
 </file>
@@ -437,10 +443,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E39E368-72E2-4A2A-AB8C-47D3B9090AB1}">
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:F15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
@@ -503,7 +509,7 @@
         <v>96</v>
       </c>
       <c r="F3">
-        <f t="shared" ref="F3:F9" si="0">D3-E3</f>
+        <f t="shared" ref="F3:F15" si="0">D3-E3</f>
         <v>197</v>
       </c>
     </row>
@@ -631,6 +637,132 @@
       <c r="F9">
         <f t="shared" si="0"/>
         <v>302</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.75">
+      <c r="A10" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>8</v>
+      </c>
+      <c r="C10">
+        <v>0</v>
+      </c>
+      <c r="D10">
+        <v>296</v>
+      </c>
+      <c r="E10">
+        <v>96</v>
+      </c>
+      <c r="F10">
+        <f t="shared" si="0"/>
+        <v>200</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.75">
+      <c r="A11" t="s">
+        <v>9</v>
+      </c>
+      <c r="B11" t="s">
+        <v>8</v>
+      </c>
+      <c r="C11">
+        <v>1</v>
+      </c>
+      <c r="D11">
+        <v>401</v>
+      </c>
+      <c r="E11">
+        <v>96</v>
+      </c>
+      <c r="F11">
+        <f t="shared" si="0"/>
+        <v>305</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.75">
+      <c r="A12" t="s">
+        <v>9</v>
+      </c>
+      <c r="B12" t="s">
+        <v>8</v>
+      </c>
+      <c r="C12">
+        <v>3</v>
+      </c>
+      <c r="D12">
+        <v>447</v>
+      </c>
+      <c r="E12">
+        <v>96</v>
+      </c>
+      <c r="F12">
+        <f t="shared" si="0"/>
+        <v>351</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.75">
+      <c r="A13" t="s">
+        <v>9</v>
+      </c>
+      <c r="B13" t="s">
+        <v>8</v>
+      </c>
+      <c r="C13">
+        <v>5</v>
+      </c>
+      <c r="D13">
+        <v>472</v>
+      </c>
+      <c r="E13">
+        <v>96</v>
+      </c>
+      <c r="F13">
+        <f t="shared" si="0"/>
+        <v>376</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.75">
+      <c r="A14" t="s">
+        <v>9</v>
+      </c>
+      <c r="B14" t="s">
+        <v>8</v>
+      </c>
+      <c r="C14">
+        <v>7</v>
+      </c>
+      <c r="D14">
+        <v>493</v>
+      </c>
+      <c r="E14">
+        <v>96</v>
+      </c>
+      <c r="F14">
+        <f t="shared" si="0"/>
+        <v>397</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.75">
+      <c r="A15" t="s">
+        <v>9</v>
+      </c>
+      <c r="B15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C15">
+        <v>9</v>
+      </c>
+      <c r="D15">
+        <v>518</v>
+      </c>
+      <c r="E15">
+        <v>96</v>
+      </c>
+      <c r="F15">
+        <f t="shared" si="0"/>
+        <v>422</v>
       </c>
     </row>
   </sheetData>
